--- a/file/数据设计.xlsx
+++ b/file/数据设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="911"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="911" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="请求" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="非登录用户信息" sheetId="23" r:id="rId13"/>
     <sheet name="系统来源" sheetId="24" r:id="rId14"/>
     <sheet name="找回密码" sheetId="25" r:id="rId15"/>
+    <sheet name="修改密码" sheetId="26" r:id="rId16"/>
+    <sheet name="修改账号信息" sheetId="27" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="281">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -458,12 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bindCode</t>
-  </si>
-  <si>
-    <t>bindType</t>
-  </si>
-  <si>
     <t>绑定接口</t>
   </si>
   <si>
@@ -1007,10 +1003,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改手机、QQ、邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,11 +1011,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重复性校验1</t>
+    <t>oldUserPassword</t>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的旧密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入新密码和旧密码一致</t>
+  </si>
+  <si>
+    <t>非法请求：账号为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>whkf1027001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：userPassword为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：oldUserPassword为空</t>
+  </si>
+  <si>
+    <t>成功修改：开放</t>
+  </si>
+  <si>
+    <t>contactWay</t>
+  </si>
+  <si>
+    <t>修改手机号、邮箱、qq</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q修改：开放</t>
+    </r>
+  </si>
+  <si>
+    <t>whkf0012</t>
+  </si>
+  <si>
+    <t>wh2345454447</t>
+  </si>
+  <si>
+    <t>邮箱修改：开放</t>
+  </si>
+  <si>
+    <t>wh2345454447@faxuan.net</t>
+  </si>
+  <si>
+    <t>手机号修改：开放</t>
+  </si>
+  <si>
+    <t>QQ修改：封闭</t>
+  </si>
+  <si>
+    <t>whfb0012</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FX00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>邮箱修改：封闭</t>
+  </si>
+  <si>
+    <t>wh1123454544481@faxuan.net</t>
+  </si>
+  <si>
+    <t>手机号修改：封闭</t>
+  </si>
+  <si>
+    <t>非法请求：oldContactWay为空</t>
+  </si>
+  <si>
+    <t>非法请求：contactWay为空</t>
+  </si>
+  <si>
+    <t>错误的QQ修改</t>
+  </si>
+  <si>
+    <t>错误的邮箱修改</t>
+  </si>
+  <si>
+    <t>错误的手机号修改</t>
+  </si>
+  <si>
+    <t>bindCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重复性校验2</t>
+    <t>bindType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,6 +1176,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1105,7 +1229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1222,6 +1346,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1231,7 +1366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,28 +1400,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1313,6 +1430,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,13 +1484,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1615,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1628,7 +1793,7 @@
     <col min="3" max="3" width="44.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1650,7 +1815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1661,18 +1826,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1683,7 +1848,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1694,166 +1859,140 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D20" t="s">
-        <v>250</v>
-      </c>
-    </row>
+      <c r="B18" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,30 +2017,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -1911,11 +2050,11 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>168</v>
+      <c r="B3" s="36" t="s">
+        <v>166</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5">
         <v>188888888888</v>
@@ -1931,9 +2070,9 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="5">
         <v>18888888888</v>
@@ -1949,9 +2088,9 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5">
         <v>18888888888</v>
@@ -1967,9 +2106,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="5">
         <v>18898765424</v>
@@ -1985,9 +2124,9 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" s="5">
         <v>18898765424</v>
@@ -2033,29 +2172,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>72</v>
@@ -2067,21 +2206,21 @@
         <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>179</v>
+      <c r="B3" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>20</v>
@@ -2100,12 +2239,12 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
@@ -2124,12 +2263,12 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -2148,9 +2287,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -2170,12 +2309,12 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
@@ -2192,12 +2331,12 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>20</v>
@@ -2214,12 +2353,12 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
@@ -2265,56 +2404,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>179</v>
+      <c r="B3" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>41</v>
@@ -2326,7 +2465,7 @@
         <v>19998765499</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H3" s="5">
         <v>123456</v>
@@ -2339,15 +2478,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F4" s="5">
         <v>15000000001</v>
@@ -2366,21 +2505,21 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F5" s="5">
         <v>13121357781</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H5" s="5">
         <v>123456</v>
@@ -2393,21 +2532,21 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="5">
         <v>3033033140234</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H6" s="5">
         <v>123456</v>
@@ -2420,9 +2559,9 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
@@ -2445,12 +2584,12 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
@@ -2470,9 +2609,9 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>69</v>
@@ -2495,9 +2634,9 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>69</v>
@@ -2520,9 +2659,9 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>69</v>
@@ -2573,26 +2712,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2603,18 +2742,18 @@
         <v>43</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>210</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -2623,19 +2762,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G3" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="32" t="s">
-        <v>212</v>
+      <c r="B4" s="28"/>
+      <c r="C4" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
@@ -2651,12 +2790,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="32" t="s">
-        <v>213</v>
+      <c r="B5" s="28"/>
+      <c r="C5" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -2664,22 +2803,22 @@
       <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>214</v>
+      <c r="F5" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="5">
@@ -2693,12 +2832,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="31">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="32" t="s">
-        <v>216</v>
+      <c r="B7" s="28"/>
+      <c r="C7" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -2706,20 +2845,20 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="17">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="31">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="32" t="s">
-        <v>218</v>
+      <c r="B8" s="28"/>
+      <c r="C8" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -2730,17 +2869,17 @@
       <c r="F8" s="5">
         <v>13121300099</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="17">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="31">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="32" t="s">
-        <v>219</v>
+      <c r="B9" s="28"/>
+      <c r="C9" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -2748,20 +2887,20 @@
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="17">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="31">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="32" t="s">
-        <v>221</v>
+      <c r="B10" s="28"/>
+      <c r="C10" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -2772,17 +2911,17 @@
       <c r="F10" s="5">
         <v>2353231111333</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="17">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="31">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="32" t="s">
-        <v>222</v>
+      <c r="B11" s="28"/>
+      <c r="C11" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -2791,19 +2930,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="23">
+        <v>221</v>
+      </c>
+      <c r="G11" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="31">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="32" t="s">
-        <v>224</v>
+      <c r="B12" s="28"/>
+      <c r="C12" s="23" t="s">
+        <v>222</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
@@ -2811,20 +2950,20 @@
       <c r="E12" s="5">
         <v>2</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="31">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="32" t="s">
-        <v>226</v>
+      <c r="B13" s="28"/>
+      <c r="C13" s="23" t="s">
+        <v>224</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
@@ -2832,20 +2971,20 @@
       <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="F13" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="31">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="32" t="s">
-        <v>228</v>
+      <c r="B14" s="28"/>
+      <c r="C14" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>23</v>
@@ -2853,19 +2992,19 @@
       <c r="E14" s="5">
         <v>4</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="F14" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="31">
+      <c r="A15" s="22">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="5"/>
@@ -2875,16 +3014,16 @@
       <c r="F15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="31">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2894,16 +3033,16 @@
       <c r="F16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="31">
+      <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2913,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="23">
+      <c r="G17" s="17">
         <v>300</v>
       </c>
     </row>
@@ -2952,24 +3091,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2978,14 +3117,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>234</v>
+      <c r="B3" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
@@ -2995,12 +3134,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="33" t="s">
-        <v>235</v>
+      <c r="B4" s="28"/>
+      <c r="C4" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>20</v>
@@ -3010,11 +3149,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="24" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="5"/>
@@ -3023,15 +3162,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>237</v>
+      <c r="B6" s="28"/>
+      <c r="C6" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="E6" s="5">
         <v>300</v>
@@ -3070,26 +3209,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3100,24 +3239,24 @@
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>241</v>
+      <c r="B3" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F3" s="5">
         <v>1234567</v>
@@ -3130,12 +3269,12 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>23</v>
@@ -3151,15 +3290,15 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F5" s="5">
         <v>12346</v>
@@ -3172,9 +3311,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -3191,12 +3330,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
@@ -3210,12 +3349,12 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>23</v>
@@ -3229,15 +3368,15 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F9" s="5">
         <v>123456</v>
@@ -3255,6 +3394,652 @@
     <mergeCell ref="B3:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1234567</v>
+      </c>
+      <c r="H3" s="10">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="10">
+        <v>123456</v>
+      </c>
+      <c r="H4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="10">
+        <v>123467</v>
+      </c>
+      <c r="H5" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="10">
+        <v>123467</v>
+      </c>
+      <c r="H6" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>123467</v>
+      </c>
+      <c r="H7" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1234567</v>
+      </c>
+      <c r="G9" s="10">
+        <v>123456</v>
+      </c>
+      <c r="H9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B3:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="26">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="10">
+        <v>13121333335000</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2345454448</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="10">
+        <v>13121333334555</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="10">
+        <v>4</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="10">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="10">
+        <v>13121333335000</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E15" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3279,27 +4064,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3320,7 +4105,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3346,7 +4131,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3370,7 +4155,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3394,7 +4179,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3418,7 +4203,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3442,7 +4227,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3466,7 +4251,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
@@ -3490,7 +4275,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3514,7 +4299,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3536,7 +4321,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -3558,7 +4343,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3580,7 +4365,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -3632,27 +4417,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
@@ -3673,14 +4458,14 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -3699,7 +4484,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="5" t="s">
         <v>49</v>
       </c>
@@ -3723,11 +4508,11 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="5">
@@ -3747,7 +4532,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
@@ -3771,7 +4556,7 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="5" t="s">
         <v>53</v>
       </c>
@@ -3795,7 +4580,7 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="5" t="s">
         <v>55</v>
       </c>
@@ -3819,11 +4604,11 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="5">
@@ -3843,11 +4628,11 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="5">
@@ -3867,11 +4652,11 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="5">
@@ -3891,7 +4676,7 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="5" t="s">
         <v>63</v>
       </c>
@@ -3913,7 +4698,7 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="5" t="s">
         <v>64</v>
       </c>
@@ -3935,7 +4720,7 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="5" t="s">
         <v>66</v>
       </c>
@@ -3957,7 +4742,7 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
@@ -3979,7 +4764,7 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7" t="s">
         <v>68</v>
       </c>
@@ -4037,28 +4822,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
@@ -4082,13 +4867,13 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="5">
@@ -4111,7 +4896,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="7" t="s">
         <v>75</v>
       </c>
@@ -4138,11 +4923,11 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="5">
@@ -4165,7 +4950,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7" t="s">
         <v>78</v>
       </c>
@@ -4192,8 +4977,8 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -4219,7 +5004,7 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
@@ -4246,11 +5031,11 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="5">
@@ -4273,11 +5058,11 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="5">
@@ -4300,11 +5085,11 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="5">
@@ -4327,7 +5112,7 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="7" t="s">
         <v>63</v>
       </c>
@@ -4352,7 +5137,7 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
@@ -4377,7 +5162,7 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="7" t="s">
         <v>66</v>
       </c>
@@ -4402,7 +5187,7 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="7" t="s">
         <v>81</v>
       </c>
@@ -4427,7 +5212,7 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="7" t="s">
         <v>67</v>
       </c>
@@ -4452,7 +5237,7 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
@@ -4510,25 +5295,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4543,7 +5328,7 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4563,7 +5348,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
         <v>90</v>
       </c>
@@ -4581,7 +5366,7 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
         <v>92</v>
       </c>
@@ -4597,11 +5382,11 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4613,7 +5398,7 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="5" t="s">
         <v>93</v>
       </c>
@@ -4623,13 +5408,13 @@
       <c r="E7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
         <v>95</v>
       </c>
@@ -4637,13 +5422,13 @@
       <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
@@ -4651,7 +5436,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="23"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4670,8 +5455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4686,35 +5471,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -4727,17 +5512,17 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -4753,15 +5538,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>109</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -4777,14 +5562,14 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="19">
         <v>2345454447</v>
       </c>
       <c r="F5" s="2">
@@ -4801,15 +5586,15 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>112</v>
+      <c r="E6" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
@@ -4825,15 +5610,15 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>114</v>
+      <c r="E7" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -4849,15 +5634,15 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>116</v>
+      <c r="E8" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -4873,13 +5658,13 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="26" t="s">
-        <v>118</v>
+      <c r="E9" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
@@ -4895,14 +5680,14 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="5">
         <v>3</v>
       </c>
@@ -4917,14 +5702,14 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="5"/>
@@ -4939,14 +5724,14 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="5">
@@ -4999,58 +5784,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>126</v>
+      <c r="B3" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" s="5">
         <v>4</v>
@@ -5066,15 +5851,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>109</v>
+      <c r="E4" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -5090,14 +5875,14 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="20">
         <v>1312132224</v>
       </c>
       <c r="F5" s="5">
@@ -5114,11 +5899,11 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="5">
@@ -5138,15 +5923,15 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>118</v>
+        <v>130</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
@@ -5162,14 +5947,14 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="26">
+        <v>131</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="20">
         <v>13121333333</v>
       </c>
       <c r="F8" s="5">
@@ -5186,13 +5971,13 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="26" t="s">
-        <v>118</v>
+      <c r="E9" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
@@ -5208,14 +5993,14 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="5">
         <v>3</v>
       </c>
@@ -5230,14 +6015,14 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="5"/>
@@ -5252,14 +6037,14 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="5">
@@ -5312,28 +6097,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
@@ -5341,13 +6126,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>45</v>
@@ -5357,11 +6142,11 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>147</v>
+      <c r="B3" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>41</v>
@@ -5370,7 +6155,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -5386,12 +6171,12 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>23</v>
@@ -5413,12 +6198,12 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>23</v>
@@ -5440,12 +6225,12 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>23</v>
@@ -5467,7 +6252,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
@@ -5492,12 +6277,12 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
@@ -5517,12 +6302,12 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>23</v>
@@ -5542,12 +6327,12 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
@@ -5567,12 +6352,12 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>23</v>
@@ -5620,25 +6405,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -5646,23 +6431,23 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>141</v>
+      <c r="B3" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="5">
@@ -5673,15 +6458,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>161</v>
+      <c r="E4" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="F4" s="5">
         <v>325</v>
@@ -5691,13 +6476,13 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="19" t="s">
-        <v>163</v>
+      <c r="E5" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="F5" s="5">
         <v>300</v>
@@ -5707,9 +6492,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>23</v>

--- a/file/数据设计.xlsx
+++ b/file/数据设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="911" firstSheet="3" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="911" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="请求" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="修改密码" sheetId="26" r:id="rId16"/>
     <sheet name="修改账号信息" sheetId="27" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="315">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,46 +108,12 @@
     <t>成功注册：封闭</t>
   </si>
   <si>
-    <r>
-      <t>whfb111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FX001</t>
   </si>
   <si>
     <t>成功注册：开放</t>
   </si>
   <si>
-    <r>
-      <t>whkf111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FX003</t>
   </si>
   <si>
@@ -157,49 +123,14 @@
     <t>用户已存在：开放</t>
   </si>
   <si>
-    <r>
-      <t>whkf111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
-    <t>封闭：旧用户注册，使用已存在的手机号</t>
-  </si>
-  <si>
-    <t>whfb1116</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：旧用户注册，使用已存在的手机号</t>
-  </si>
-  <si>
     <t>封闭：新用户注册，使用已存在的手机号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>whfb11161</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>开放：新用户注册，使用已存在的手机号</t>
-  </si>
-  <si>
-    <t>whkf11161</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>非法请求：账号为空</t>
@@ -245,25 +176,9 @@
     <t>开放：成功登陆账号</t>
   </si>
   <si>
-    <t>whkf1116</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：成功登陆手机号</t>
-  </si>
-  <si>
-    <t>开放：成功登陆邮箱</t>
-  </si>
-  <si>
     <t>2345454447@faxuan.net</t>
   </si>
   <si>
-    <t>成功登陆：QQ</t>
-  </si>
-  <si>
-    <t>正确的账号错误的密码</t>
-  </si>
-  <si>
     <t>whkf102712</t>
   </si>
   <si>
@@ -273,96 +188,26 @@
     <t>whkf001232131</t>
   </si>
   <si>
-    <t>输入一个不存在的手机号</t>
-  </si>
-  <si>
-    <t>12312312312312312</t>
-  </si>
-  <si>
-    <t>输入一个不存在的邮箱</t>
-  </si>
-  <si>
-    <t>2345234324234454446@faxuan.net</t>
-  </si>
-  <si>
-    <t>输入一个不存在的QQ</t>
-  </si>
-  <si>
-    <t>2345234324234454446</t>
-  </si>
-  <si>
     <t>非法请求：loginCode为空</t>
   </si>
   <si>
     <t>非法请求：type为空</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>whkf001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>非法请求：sysCode为空</t>
   </si>
   <si>
     <t>非法请求：userPassword为空</t>
   </si>
   <si>
-    <t>输入一个封闭系统账号</t>
-  </si>
-  <si>
     <t>whfb1027001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>whfb1126</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1126</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>fbSysCode</t>
   </si>
   <si>
     <t>封闭平台登陆（关联后执行）</t>
-  </si>
-  <si>
-    <t>已关联的账号登陆：账号</t>
-  </si>
-  <si>
-    <t>已关联的账号登陆：手机号</t>
-  </si>
-  <si>
-    <t>已关联的账号登陆：邮箱</t>
-  </si>
-  <si>
-    <t>2345454448@faxuan.net</t>
-  </si>
-  <si>
-    <t>已关联的账号登陆：QQ</t>
-  </si>
-  <si>
-    <t>已关联的账号登陆
-（code值写成一样的）</t>
   </si>
   <si>
     <r>
@@ -393,458 +238,362 @@
     <t>输入一个开放系统账号</t>
   </si>
   <si>
-    <t>whfb1128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>whfb1027001</t>
   </si>
   <si>
+    <t>退出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功退出：开放</t>
+  </si>
+  <si>
+    <t>whkf001</t>
+  </si>
+  <si>
+    <t>成功退出：封闭</t>
+  </si>
+  <si>
+    <t>whfb001</t>
+  </si>
+  <si>
+    <t>一个已经退出的再次进行退出</t>
+  </si>
+  <si>
+    <t>输入一个不存在的syscode</t>
+  </si>
+  <si>
+    <t>FX0032353</t>
+  </si>
+  <si>
+    <t>非法请求：userAccount为空</t>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/logoutUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/bindUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whfb1126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定接口</t>
+  </si>
+  <si>
+    <t>开放：QQ绑定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：用户成功绑定后再次绑定QQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：QQ绑定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：邮箱绑定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：用户成功绑定后再次绑定邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：账号为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2345454446@faxuan.net</t>
+  </si>
+  <si>
+    <t>非法请求：bindCode为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：bindTypee为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：sysCode为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbindCode</t>
+  </si>
+  <si>
+    <t>unbindType</t>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑接口</t>
+  </si>
+  <si>
+    <t>没有QQ进行解绑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有邮箱进行解绑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有手机号进行解绑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：unbindCode为空</t>
+  </si>
+  <si>
+    <t>非法请求：unbindType为空</t>
+  </si>
+  <si>
+    <t>解绑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/unbindUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关联</t>
+  </si>
+  <si>
+    <t>取消关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/realtionLinkUserAccount.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkUserAccount</t>
+  </si>
+  <si>
+    <t>linkSysCode</t>
+  </si>
+  <si>
+    <t>linkPassword</t>
+  </si>
+  <si>
+    <t>账号关联</t>
+  </si>
+  <si>
+    <t>开放：两个开放系统同时关联</t>
+  </si>
+  <si>
+    <t>whkf1027001</t>
+  </si>
+  <si>
+    <t>开放和封闭系统同时关联</t>
+  </si>
+  <si>
+    <t>账号已关联再次关联</t>
+  </si>
+  <si>
+    <t>非法请求：linkUserAccount为空</t>
+  </si>
+  <si>
+    <t>非法请求：linkSysCode为空</t>
+  </si>
+  <si>
+    <t>非法请求：linkPassword为空</t>
+  </si>
+  <si>
+    <t>开放：输入错误的封闭密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whfb1127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/cancelLinkUserAccount.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功取消关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号没有关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>whkf1027001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：sysCode为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>whkf1027001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：账号为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPhone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号是否可以关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不存在:开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号存在:开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号被关联：开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：userPhone为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验手机号是否可以关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/checkUserPhone.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/createAndLinkUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不存在创建帐号关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不存在关联</t>
+  </si>
+  <si>
+    <t>手机号不存在</t>
+  </si>
+  <si>
+    <t>手机号存在</t>
+  </si>
+  <si>
+    <t>非法请求：fbUserAccount为空</t>
+  </si>
+  <si>
+    <t>非法请求：userPhone为空</t>
+  </si>
+  <si>
+    <t>手机号存在关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/existAndLinkUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbUserAccount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号存在未关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>FX003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1127</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功退出：开放</t>
-  </si>
-  <si>
-    <t>whkf001</t>
-  </si>
-  <si>
-    <t>成功退出：封闭</t>
-  </si>
-  <si>
-    <t>whfb001</t>
-  </si>
-  <si>
-    <t>一个已经退出的再次进行退出</t>
-  </si>
-  <si>
-    <t>输入一个不存在的syscode</t>
-  </si>
-  <si>
-    <t>FX0032353</t>
-  </si>
-  <si>
-    <t>非法请求：userAccount为空</t>
-  </si>
-  <si>
-    <t>退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/logoutUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/bindUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定接口</t>
-  </si>
-  <si>
-    <t>开放：QQ绑定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2345454447wh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：邮箱绑定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whkf1116</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>23532311118@wanhui.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：用户成功绑定后再次绑定QQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭：QQ绑定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23532311113</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭：邮箱绑定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2343231114@wanhui.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭：用户成功绑定后再次绑定邮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>345454447@faxuan.net</t>
-  </si>
-  <si>
-    <t>非法请求：账号为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2345454446@faxuan.net</t>
-  </si>
-  <si>
-    <t>非法请求：bindCode为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1116</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：bindTypee为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号存在已关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号存在未关联（封闭手机号）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号存在未关联（用户账号）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>whfb1027001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：userPassword为空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>非法请求：sysCode为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unbindCode</t>
-  </si>
-  <si>
-    <t>unbindType</t>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解绑接口</t>
-  </si>
-  <si>
-    <t>成功解绑：QQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whkf1116</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功解绑：邮箱</t>
-  </si>
-  <si>
-    <t>成功解绑：手机号</t>
-  </si>
-  <si>
-    <t>没有QQ进行解绑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有邮箱进行解绑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有手机号进行解绑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：unbindCode为空</t>
-  </si>
-  <si>
-    <t>非法请求：unbindType为空</t>
-  </si>
-  <si>
-    <t>whfb1116</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2345454447wh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解绑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/unbindUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消关联</t>
-  </si>
-  <si>
-    <t>取消关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/realtionLinkUserAccount.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkUserAccount</t>
-  </si>
-  <si>
-    <t>linkSysCode</t>
-  </si>
-  <si>
-    <t>linkPassword</t>
-  </si>
-  <si>
-    <t>账号关联</t>
-  </si>
-  <si>
-    <t>开放：两个开放系统同时关联</t>
-  </si>
-  <si>
-    <t>whkf1027001</t>
-  </si>
-  <si>
-    <t>开放和封闭系统同时关联</t>
-  </si>
-  <si>
-    <t>账号已关联再次关联</t>
-  </si>
-  <si>
-    <t>非法请求：linkUserAccount为空</t>
-  </si>
-  <si>
-    <t>非法请求：linkSysCode为空</t>
-  </si>
-  <si>
-    <t>非法请求：linkPassword为空</t>
-  </si>
-  <si>
-    <t>开放：输入错误的封闭密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/cancelLinkUserAccount.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功取消关联</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号没有关联</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whkf1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：sysCode为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whkf1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：账号为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPhone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号是否可以关联</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号不存在:开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在:开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号被关联：开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：userPhone为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验手机号是否可以关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/checkUserPhone.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/createAndLinkUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号不存在创建帐号关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbUserAccount</t>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号不存在关联</t>
-  </si>
-  <si>
-    <t>手机号不存在</t>
-  </si>
-  <si>
-    <t>whfb1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在</t>
-  </si>
-  <si>
-    <t>手机号被关联</t>
-  </si>
-  <si>
-    <t>非法请求：fbUserAccount为空</t>
-  </si>
-  <si>
-    <t>非法请求：userPhone为空</t>
-  </si>
-  <si>
-    <t>whfb1127</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/existAndLinkUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbUserAccount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPassword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在未关联</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在已关联</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在未关联（封闭手机号）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在未关联（用户账号）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：userPassword为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：sysCode为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1126</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1075,25 +824,13 @@
     </r>
   </si>
   <si>
-    <t>whkf0012</t>
-  </si>
-  <si>
-    <t>wh2345454447</t>
-  </si>
-  <si>
     <t>邮箱修改：开放</t>
   </si>
   <si>
-    <t>wh2345454447@faxuan.net</t>
-  </si>
-  <si>
     <t>手机号修改：开放</t>
   </si>
   <si>
     <t>QQ修改：封闭</t>
-  </si>
-  <si>
-    <t>whfb0012</t>
   </si>
   <si>
     <r>
@@ -1121,9 +858,6 @@
     <t>邮箱修改：封闭</t>
   </si>
   <si>
-    <t>wh1123454544481@faxuan.net</t>
-  </si>
-  <si>
     <t>手机号修改：封闭</t>
   </si>
   <si>
@@ -1133,20 +867,383 @@
     <t>非法请求：contactWay为空</t>
   </si>
   <si>
-    <t>错误的QQ修改</t>
-  </si>
-  <si>
-    <t>错误的邮箱修改</t>
-  </si>
-  <si>
-    <t>错误的手机号修改</t>
-  </si>
-  <si>
     <t>bindCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bindType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：成功登陆手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：成功登录账号未关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@kf.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>201812061@fb.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放成功解绑：QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放成功解绑：邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放成功解绑：手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@kf.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭成功解绑：QQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭成功解绑：邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭成功解绑：手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@fb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@fb.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：邮箱绑定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldContactWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018120601@kf.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QQ数据还原：开放 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">邮箱数据还原：开放 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号数据还原：开放 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QQ数据还原：封闭 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱数据还原：封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号数据还原：封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18910219277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18910219278</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18910219277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018120601@fb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018120601@fb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：成功登陆QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：成功登陆邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：成功登陆手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：成功登陆QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：成功登陆邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：loginCode为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：type为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：sysCode为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：userPassword为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logincode和type不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logincode和syscode不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未关联的账号登陆：账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ucds/ucenter/doDeleteUserForTest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbUserAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbSysCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,9 +1506,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,10 +1539,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1484,19 +1584,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1782,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1812,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1830,10 +1930,10 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1842,10 +1942,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1853,10 +1953,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1864,10 +1964,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1875,10 +1975,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1886,10 +1986,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1897,10 +1997,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1908,10 +2008,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1919,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1930,10 +2030,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1941,10 +2041,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1952,10 +2052,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1963,10 +2063,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1974,10 +2074,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1985,13 +2085,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2004,7 +2114,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2017,30 +2127,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -2050,17 +2160,17 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>166</v>
+      <c r="B3" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="D3" s="5">
         <v>188888888888</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5">
         <v>320</v>
@@ -2070,15 +2180,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="D4" s="5">
         <v>18888888888</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5">
         <v>320</v>
@@ -2088,15 +2198,15 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="D5" s="5">
         <v>18888888888</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5">
         <v>320</v>
@@ -2106,15 +2216,13 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="5">
-        <v>18898765424</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5">
         <v>300</v>
@@ -2122,18 +2230,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D7" s="5">
         <v>18898765424</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5">
         <v>300</v>
       </c>
@@ -2153,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2172,64 +2278,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
-        <v>175</v>
+        <v>311</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>177</v>
+      <c r="B3" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5">
-        <v>13124325543</v>
+        <v>18888888888</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5">
         <v>200</v>
@@ -2239,135 +2345,111 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="5" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5">
-        <v>1380100002</v>
+        <v>18910219278</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5">
-        <v>15000000021</v>
+        <v>18898765424</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5">
         <v>18898765424</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>18898765424</v>
-      </c>
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28"/>
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>179</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F8" s="5">
+        <v>18898765424</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5">
-        <v>18898765424</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
         <v>300</v>
       </c>
     </row>
@@ -2377,7 +2459,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2404,68 +2486,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>177</v>
+      <c r="B3" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5">
         <v>19998765499</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="H3" s="5">
         <v>123456</v>
@@ -2478,21 +2560,21 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="5" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="F4" s="5">
         <v>15000000001</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5">
         <v>123456</v>
@@ -2505,21 +2587,21 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="5" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="F5" s="5">
         <v>13121357781</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="H5" s="5">
         <v>123456</v>
@@ -2532,21 +2614,21 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="5" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="F6" s="5">
         <v>3033033140234</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="H6" s="5">
         <v>123456</v>
@@ -2559,19 +2641,19 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="5" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5">
         <v>19998765499</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="5">
         <v>123456</v>
@@ -2584,19 +2666,19 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
         <v>19998765499</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="5">
         <v>123456</v>
@@ -2609,19 +2691,19 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="5" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5">
         <v>123456</v>
@@ -2634,21 +2716,21 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5">
         <v>19998765499</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
@@ -2659,15 +2741,15 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5">
         <v>19998765499</v>
@@ -2712,72 +2794,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>208</v>
+      <c r="B3" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="G3" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="23" t="s">
-        <v>210</v>
+      <c r="B4" s="29"/>
+      <c r="C4" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -2790,36 +2872,36 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="23" t="s">
-        <v>211</v>
+      <c r="B5" s="29"/>
+      <c r="C5" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="23" t="s">
-        <v>213</v>
+      <c r="B6" s="29"/>
+      <c r="C6" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -2832,36 +2914,36 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="23" t="s">
-        <v>214</v>
+      <c r="B7" s="29"/>
+      <c r="C7" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="17">
+        <v>164</v>
+      </c>
+      <c r="G7" s="16">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="23" t="s">
-        <v>216</v>
+      <c r="B8" s="29"/>
+      <c r="C8" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -2869,41 +2951,41 @@
       <c r="F8" s="5">
         <v>13121300099</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="23" t="s">
-        <v>217</v>
+      <c r="B9" s="29"/>
+      <c r="C9" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="17">
+        <v>167</v>
+      </c>
+      <c r="G9" s="16">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="23" t="s">
-        <v>219</v>
+      <c r="B10" s="29"/>
+      <c r="C10" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5">
         <v>4</v>
@@ -2911,148 +2993,148 @@
       <c r="F10" s="5">
         <v>2353231111333</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="23" t="s">
-        <v>220</v>
+      <c r="B11" s="29"/>
+      <c r="C11" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="17">
+        <v>170</v>
+      </c>
+      <c r="G11" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="23" t="s">
-        <v>222</v>
+      <c r="B12" s="29"/>
+      <c r="C12" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5">
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="17">
+        <v>172</v>
+      </c>
+      <c r="G12" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="23" t="s">
-        <v>224</v>
+      <c r="B13" s="29"/>
+      <c r="C13" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" s="17">
+        <v>174</v>
+      </c>
+      <c r="G13" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="23" t="s">
-        <v>226</v>
+      <c r="B14" s="29"/>
+      <c r="C14" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="17">
+        <v>176</v>
+      </c>
+      <c r="G14" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="23" t="s">
-        <v>66</v>
+      <c r="B15" s="29"/>
+      <c r="C15" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="17">
+        <v>57</v>
+      </c>
+      <c r="G15" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="23" t="s">
-        <v>64</v>
+      <c r="B16" s="29"/>
+      <c r="C16" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="17">
+        <v>57</v>
+      </c>
+      <c r="G16" s="16">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="23" t="s">
-        <v>63</v>
+      <c r="B17" s="29"/>
+      <c r="C17" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>300</v>
       </c>
     </row>
@@ -3091,24 +3173,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3117,44 +3199,44 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>232</v>
+      <c r="B3" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="24" t="s">
-        <v>233</v>
+      <c r="B4" s="29"/>
+      <c r="C4" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24" t="s">
-        <v>66</v>
+      <c r="B5" s="29"/>
+      <c r="C5" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -3162,15 +3244,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="24" t="s">
-        <v>234</v>
+      <c r="B6" s="29"/>
+      <c r="C6" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="E6" s="5">
         <v>300</v>
@@ -3209,26 +3291,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3239,24 +3321,24 @@
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>239</v>
+      <c r="B3" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="F3" s="5">
         <v>1234567</v>
@@ -3269,15 +3351,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5">
         <v>123456</v>
@@ -3290,15 +3372,15 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="7" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="F5" s="5">
         <v>12346</v>
@@ -3311,13 +3393,13 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5">
         <v>123467</v>
@@ -3330,12 +3412,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
@@ -3349,15 +3431,15 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -3368,15 +3450,15 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="F9" s="5">
         <v>123456</v>
@@ -3419,27 +3501,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
@@ -3450,27 +3532,27 @@
         <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>251</v>
+        <v>199</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>253</v>
+      <c r="B3" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>159</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="F3" s="10">
         <v>123456</v>
@@ -3486,15 +3568,15 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="10" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>159</v>
+        <v>21</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="F4" s="10">
         <v>123456</v>
@@ -3510,13 +3592,13 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="21" t="s">
-        <v>255</v>
+      <c r="B5" s="29"/>
+      <c r="C5" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="21" t="s">
-        <v>256</v>
+      <c r="E5" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="F5" s="10">
         <v>123456</v>
@@ -3532,12 +3614,12 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
@@ -3554,15 +3636,15 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="21" t="s">
-        <v>257</v>
+      <c r="B7" s="29"/>
+      <c r="C7" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>159</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -3576,15 +3658,15 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>159</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="F8" s="10">
         <v>123456</v>
@@ -3598,15 +3680,15 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="10" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>159</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="F9" s="10">
         <v>1234567</v>
@@ -3619,7 +3701,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="25"/>
+      <c r="C10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3636,10 +3718,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3647,47 +3729,45 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20" style="43" customWidth="1"/>
+    <col min="5" max="5" width="31" style="43" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="43"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3695,47 +3775,47 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="B3" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="26">
         <v>4</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>23</v>
+      <c r="G3" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="26">
-        <v>319</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="B4" s="37"/>
+      <c r="C4" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="26">
         <v>3</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>23</v>
+      <c r="G4" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="26">
         <v>200</v>
@@ -3745,311 +3825,360 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="10">
-        <v>13121333335000</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="B5" s="37"/>
+      <c r="C5" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="44">
+        <v>189102192781</v>
+      </c>
+      <c r="F5" s="26">
         <v>2</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>23</v>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="26">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2345454448</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="B6" s="37"/>
+      <c r="C6" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="26">
         <v>4</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>270</v>
+      <c r="G6" s="27" t="s">
+        <v>215</v>
       </c>
       <c r="H6" s="26">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F7" s="10">
-        <v>3</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="B8" s="37"/>
+      <c r="C8" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="44">
+        <v>189102192771</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="10">
-        <v>13121333334555</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="B9" s="37"/>
+      <c r="C9" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="26">
         <v>4</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>23</v>
+      <c r="G9" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="26">
         <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="26">
         <v>4</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>23</v>
+      <c r="G10" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="26">
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="10">
-        <v>4</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>23</v>
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="H11" s="26">
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="26">
+        <v>4</v>
+      </c>
+      <c r="G12" s="27"/>
       <c r="H12" s="26">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="26">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="26">
+        <v>4</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="B14" s="37"/>
+      <c r="C14" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="26">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="44">
+        <v>189102192781</v>
+      </c>
+      <c r="E15" s="41">
+        <v>18910219278</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="26">
         <v>4</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="21" t="s">
+      <c r="G16" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="10">
-        <v>4</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="21" t="s">
+      <c r="D17" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="26">
+        <v>3</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="26">
+        <v>16</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="10">
-        <v>3</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="10">
-        <v>13121333335000</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D18" s="44">
+        <v>189102192771</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="26">
         <v>2</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C17" s="25"/>
+      <c r="G18" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="26">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B16"/>
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B3:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E15" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="E14" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="E17" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4064,27 +4193,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -4105,23 +4234,23 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="E3" s="8">
         <v>123456</v>
       </c>
       <c r="F3" s="9">
-        <v>13121357700</v>
+        <v>18910219277</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
@@ -4131,21 +4260,21 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="E4" s="8">
         <v>123456</v>
       </c>
       <c r="F4" s="9">
-        <v>13121357798</v>
+        <v>18910219278</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="H4" s="1">
         <v>200</v>
@@ -4155,21 +4284,21 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="E5" s="8">
         <v>123456</v>
       </c>
       <c r="F5" s="9">
-        <v>1312132223</v>
+        <v>18910219279</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="H5" s="1">
         <v>301</v>
@@ -4179,21 +4308,21 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="9">
-        <v>1312132224</v>
+        <v>18910219280</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="H6" s="1">
         <v>301</v>
@@ -4201,117 +4330,111 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="8">
+        <v>123456</v>
       </c>
       <c r="F7" s="9">
-        <v>1312132223</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>18910219277</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="H7" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="8">
+        <v>123456</v>
       </c>
       <c r="F8" s="9">
-        <v>1312132224</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>18910219278</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="H8" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="8">
         <v>123456</v>
       </c>
       <c r="F9" s="9">
-        <v>1312132223</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>18910219277</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="H9" s="1">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="28"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E10" s="8">
         <v>123456</v>
       </c>
-      <c r="F10" s="9">
-        <v>1312132224</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
+      <c r="F10" s="9"/>
+      <c r="G10" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="H10" s="1">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="8">
-        <v>123456</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="9">
-        <v>13121333335</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>18910219277</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="H11" s="1">
         <v>300</v>
@@ -4319,67 +4442,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="28"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="E12" s="8">
         <v>123456</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="F12" s="9">
+        <v>18910219279</v>
+      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9">
-        <v>13121333333</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8">
-        <v>123456</v>
-      </c>
-      <c r="F14" s="9">
-        <v>13121333333</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
         <v>300</v>
       </c>
     </row>
@@ -4389,7 +4468,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B3:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4398,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4417,41 +4496,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -4459,19 +4538,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="G3" s="5">
         <v>123456</v>
@@ -4481,307 +4560,331 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="5">
-        <v>13121333335</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="29"/>
+      <c r="C4" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="26">
+        <v>123456</v>
+      </c>
+      <c r="H4" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="26">
+        <v>18910219278</v>
+      </c>
+      <c r="E5" s="26">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F5" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="26">
         <v>123456</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="26">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="26">
+        <v>123456</v>
+      </c>
+      <c r="H6" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="F7" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="26">
+        <v>123456</v>
+      </c>
+      <c r="H7" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="26">
+        <v>18910219277</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="26">
+        <v>123456</v>
+      </c>
+      <c r="H8" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="26">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="26">
+        <v>123456</v>
+      </c>
+      <c r="H9" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="26">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F10" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="26">
         <v>123456</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H10" s="26">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2345454447</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1234567</v>
+      </c>
+      <c r="H11" s="26">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="26">
         <v>123456</v>
       </c>
-      <c r="H6" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="H12" s="26">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="26">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="26">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1234567</v>
-      </c>
-      <c r="H7" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="F13" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="26">
+        <v>123456</v>
+      </c>
+      <c r="H13" s="26">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="26">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1234567</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F14" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="26">
+        <v>123456</v>
+      </c>
+      <c r="H14" s="26">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="26">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="26">
         <v>123456</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H15" s="26">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26">
         <v>123456</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H16" s="26">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5">
-        <v>123456</v>
-      </c>
-      <c r="H11" s="5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26">
         <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5">
-        <v>123456</v>
-      </c>
-      <c r="H12" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5">
-        <v>123456</v>
-      </c>
-      <c r="H13" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>123456</v>
-      </c>
-      <c r="H14" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5">
-        <v>123456</v>
-      </c>
-      <c r="H16" s="5">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4790,12 +4893,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="B3:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2" tooltip="mailto:2345234324234454446@faxuan.net"/>
+    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4803,7 +4906,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -4822,39 +4925,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
@@ -4867,23 +4970,23 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>73</v>
+      <c r="B3" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5">
         <v>123456</v>
@@ -4892,107 +4995,99 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="30"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="31"/>
       <c r="C4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="5">
-        <v>13121333334</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5">
         <v>123456</v>
       </c>
       <c r="I4" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="30"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="31"/>
       <c r="C5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5">
         <v>123456</v>
       </c>
       <c r="I5" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1123454544481</v>
+        <v>46</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5">
         <v>123456</v>
       </c>
       <c r="I6" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5">
         <v>123456</v>
       </c>
@@ -5002,261 +5097,53 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="30"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5">
-        <v>123456</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="E9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5">
         <v>123456</v>
       </c>
       <c r="I9" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="5">
-        <v>123456</v>
-      </c>
-      <c r="I10" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="5">
-        <v>123456</v>
-      </c>
-      <c r="I11" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="5">
-        <v>123456</v>
-      </c>
-      <c r="I12" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5">
-        <v>123456</v>
-      </c>
-      <c r="I13" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="5">
-        <v>123456</v>
-      </c>
-      <c r="I14" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <v>123456</v>
-      </c>
-      <c r="I15" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="5">
-        <v>123456</v>
-      </c>
-      <c r="I17" s="5">
         <v>300</v>
       </c>
     </row>
@@ -5266,13 +5153,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2" tooltip="mailto:2345234324234454446@faxuan.net"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5295,25 +5178,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
@@ -5321,24 +5204,24 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>87</v>
+      <c r="B3" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5">
         <v>200</v>
@@ -5348,15 +5231,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5">
         <v>200</v>
@@ -5366,15 +5249,15 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -5382,15 +5265,15 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -5398,45 +5281,45 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5455,8 +5338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5471,64 +5354,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>102</v>
+      <c r="B3" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>104</v>
+      <c r="D3" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="H3" s="2">
         <v>200</v>
@@ -5538,21 +5421,21 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>107</v>
+        <v>267</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2">
         <v>200</v>
@@ -5562,21 +5445,21 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="19">
-        <v>2345454447</v>
+        <v>72</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2">
         <v>400</v>
@@ -5586,21 +5469,21 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>110</v>
+        <v>73</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2">
         <v>200</v>
@@ -5610,21 +5493,21 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>112</v>
+        <v>74</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2">
         <v>200</v>
@@ -5634,21 +5517,21 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>114</v>
+        <v>75</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>246</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2">
         <v>400</v>
@@ -5658,19 +5541,19 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="20" t="s">
-        <v>116</v>
+      <c r="E9" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5">
         <v>300</v>
@@ -5680,19 +5563,19 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5">
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="5">
         <v>300</v>
@@ -5702,19 +5585,19 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>51</v>
+        <v>242</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5">
         <v>300</v>
@@ -5724,15 +5607,15 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
@@ -5766,10 +5649,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5784,292 +5667,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B3" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="26">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>48</v>
+      <c r="B4" s="31"/>
+      <c r="C4" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="5">
+        <v>251</v>
+      </c>
+      <c r="F4" s="26">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="20">
-        <v>1312132224</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="B5" s="31"/>
+      <c r="C5" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="26">
+        <v>18910219278</v>
+      </c>
+      <c r="F5" s="26">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="27">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2345454446</v>
+        <v>240</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="F6" s="5">
         <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="H6" s="5">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>116</v>
+        <v>240</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="H7" s="5">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="20">
-        <v>13121333333</v>
+        <v>240</v>
+      </c>
+      <c r="E8" s="19">
+        <v>18910219277</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="H8" s="5">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="20" t="s">
-        <v>116</v>
+        <v>85</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="26">
         <v>3</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G10" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="26">
+        <v>18910219278</v>
+      </c>
+      <c r="F11" s="26">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="26">
+        <v>18910219278</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="27">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="26">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26">
+        <v>2</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="27">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="26">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="26">
+        <v>18910219278</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="27">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="26">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" s="26">
+        <v>18910219278</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B3:B15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B3:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" tooltip="mailto:2345454446@faxuan.net"/>
-    <hyperlink ref="E9" r:id="rId2" tooltip="mailto:2345454446@faxuan.net"/>
-    <hyperlink ref="E11" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4" tooltip="mailto:2345454447@faxuan.net"/>
-    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6097,28 +6050,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
@@ -6126,39 +6079,39 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>145</v>
+      <c r="B3" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5">
         <v>123456</v>
@@ -6171,21 +6124,21 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5">
         <v>123456</v>
@@ -6198,21 +6151,21 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5">
         <v>123456</v>
@@ -6225,21 +6178,21 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5">
         <v>123456</v>
@@ -6252,19 +6205,19 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5">
         <v>123456</v>
@@ -6277,19 +6230,19 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5">
         <v>123456</v>
@@ -6302,19 +6255,19 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="5" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5">
         <v>123456</v>
@@ -6327,18 +6280,18 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
@@ -6352,21 +6305,21 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
@@ -6391,7 +6344,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6405,25 +6358,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -6431,24 +6384,24 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>139</v>
+      <c r="B3" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="F3" s="5">
         <v>200</v>
@@ -6458,15 +6411,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="F4" s="5">
         <v>325</v>
@@ -6476,13 +6429,13 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="F5" s="5">
         <v>300</v>
@@ -6492,12 +6445,12 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">

--- a/file/数据设计.xlsx
+++ b/file/数据设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="911" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="911" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="请求" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="327">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>whfb1126</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用例描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,9 +175,6 @@
     <t>2345454447@faxuan.net</t>
   </si>
   <si>
-    <t>whkf102712</t>
-  </si>
-  <si>
     <t>输入一个不存在的账号</t>
   </si>
   <si>
@@ -198,10 +191,6 @@
   </si>
   <si>
     <t>非法请求：userPassword为空</t>
-  </si>
-  <si>
-    <t>whfb1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fbSysCode</t>
@@ -238,9 +227,6 @@
     <t>输入一个开放系统账号</t>
   </si>
   <si>
-    <t>whfb1027001</t>
-  </si>
-  <si>
     <t>退出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -401,36 +387,98 @@
     <t>账号关联</t>
   </si>
   <si>
-    <t>开放：两个开放系统同时关联</t>
+    <t>开放和封闭系统同时关联</t>
+  </si>
+  <si>
+    <t>账号已关联再次关联</t>
+  </si>
+  <si>
+    <t>非法请求：linkUserAccount为空</t>
+  </si>
+  <si>
+    <t>非法请求：linkSysCode为空</t>
+  </si>
+  <si>
+    <t>非法请求：linkPassword为空</t>
+  </si>
+  <si>
+    <t>开放：输入错误的封闭密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/cancelLinkUserAccount.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功取消关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号没有关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>whkf1027001</t>
-  </si>
-  <si>
-    <t>开放和封闭系统同时关联</t>
-  </si>
-  <si>
-    <t>账号已关联再次关联</t>
-  </si>
-  <si>
-    <t>非法请求：linkUserAccount为空</t>
-  </si>
-  <si>
-    <t>非法请求：linkSysCode为空</t>
-  </si>
-  <si>
-    <t>非法请求：linkPassword为空</t>
-  </si>
-  <si>
-    <t>开放：输入错误的封闭密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/cancelLinkUserAccount.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：sysCode为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：账号为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPhone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号是否可以关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不存在:开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号存在:开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号被关联：开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：userPhone为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验手机号是否可以关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/checkUserPhone.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/createAndLinkUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不存在创建帐号关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,117 +486,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>成功取消关联</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号没有关联</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whkf1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：sysCode为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whkf1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：账号为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPhone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号是否可以关联</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号不存在:开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在:开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号被关联：开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>手机号不存在关联</t>
+  </si>
+  <si>
+    <t>手机号不存在</t>
+  </si>
+  <si>
+    <t>手机号存在</t>
+  </si>
+  <si>
+    <t>非法请求：fbUserAccount为空</t>
   </si>
   <si>
     <t>非法请求：userPhone为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验手机号是否可以关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/checkUserPhone.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/createAndLinkUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号不存在创建帐号关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号存在关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/existAndLinkUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbUserAccount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>检查点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>手机号不存在关联</t>
-  </si>
-  <si>
-    <t>手机号不存在</t>
-  </si>
-  <si>
-    <t>手机号存在</t>
-  </si>
-  <si>
-    <t>非法请求：fbUserAccount为空</t>
-  </si>
-  <si>
-    <t>非法请求：userPhone为空</t>
-  </si>
-  <si>
-    <t>手机号存在关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/existAndLinkUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbUserAccount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPassword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号存在未关联</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -562,30 +534,6 @@
   </si>
   <si>
     <t>FX001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在未关联（封闭手机号）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号存在未关联（用户账号）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whfb1027001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1208,42 +1156,146 @@
   </si>
   <si>
     <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fb20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ucds/ucenter/doDeleteUserForTest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbUserAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbSysCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fb20181206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功注册：关联开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功注册：关联封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fb20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ucds/ucenter/doDeleteUserForTest.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbUserAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbSysCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放和封闭系统都写入封闭的code值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户写成开放系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放关联账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭关联账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：两个开放系统同时关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1463,7 +1515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,13 +1606,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1570,6 +1631,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1585,18 +1655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1942,10 +2000,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1953,10 +2011,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1964,10 +2022,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1975,10 +2033,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1986,10 +2044,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1997,10 +2055,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2008,10 +2066,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2019,10 +2077,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2030,10 +2088,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2041,10 +2099,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2052,10 +2110,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2063,10 +2121,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2074,10 +2132,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2085,10 +2143,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2096,10 +2154,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2127,30 +2185,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -2160,11 +2218,11 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>120</v>
+      <c r="B3" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5">
         <v>188888888888</v>
@@ -2180,9 +2238,9 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5">
         <v>18888888888</v>
@@ -2198,9 +2256,9 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D5" s="5">
         <v>18888888888</v>
@@ -2216,9 +2274,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -2232,9 +2290,9 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="5">
         <v>18898765424</v>
@@ -2261,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2278,55 +2336,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>130</v>
+      <c r="B3" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
@@ -2345,12 +2403,12 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
@@ -2369,9 +2427,9 @@
       <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -2391,12 +2449,12 @@
       <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -2413,12 +2471,12 @@
       <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -2435,12 +2493,12 @@
       <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
@@ -2471,14 +2529,14 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
     <col min="6" max="7" width="15.75" style="4" customWidth="1"/>
@@ -2486,122 +2544,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5">
-        <v>19998765499</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="B3" s="40"/>
+      <c r="C3" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="30">
+        <v>18910219278</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" s="29">
         <v>123456</v>
       </c>
-      <c r="I3" s="5">
-        <v>200</v>
+      <c r="I3" s="30">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="5">
-        <v>15000000001</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="B4" s="40"/>
+      <c r="C4" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="30">
+        <v>18910219277</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="29">
         <v>123456</v>
       </c>
-      <c r="I4" s="5">
-        <v>200</v>
+      <c r="I4" s="29">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>132</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="F5" s="5">
-        <v>13121357781</v>
+        <v>18910219278</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H5" s="5">
         <v>123456</v>
@@ -2610,48 +2666,46 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5">
-        <v>3033033140234</v>
+        <v>18910219278</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5">
         <v>123456</v>
       </c>
       <c r="I6" s="5">
-        <v>200</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40"/>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5">
-        <v>19998765499</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
@@ -2663,20 +2717,18 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>19998765499</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2688,15 +2740,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31"/>
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40"/>
       <c r="C9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>126</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>304</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -2713,22 +2765,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31"/>
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="5">
-        <v>19998765499</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2738,22 +2788,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="41"/>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>311</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5">
-        <v>19998765499</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5">
         <v>123456</v>
@@ -2764,11 +2812,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B3:B11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="B3:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2794,48 +2842,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="D1" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>156</v>
+      <c r="B3" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
@@ -2844,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G3" s="5">
         <v>200</v>
@@ -2854,9 +2902,9 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="22" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
@@ -2875,9 +2923,9 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="22" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
@@ -2886,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
@@ -2896,9 +2944,9 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="22" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>21</v>
@@ -2917,9 +2965,9 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="22" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
@@ -2928,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G7" s="16">
         <v>200</v>
@@ -2938,9 +2986,9 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="22" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -2959,9 +3007,9 @@
       <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="22" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
@@ -2970,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G9" s="16">
         <v>200</v>
@@ -2980,9 +3028,9 @@
       <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="22" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
@@ -3001,9 +3049,9 @@
       <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="22" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>21</v>
@@ -3012,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G11" s="16">
         <v>300</v>
@@ -3022,9 +3070,9 @@
       <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>21</v>
@@ -3033,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G12" s="16">
         <v>300</v>
@@ -3043,9 +3091,9 @@
       <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="22" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>21</v>
@@ -3054,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G13" s="16">
         <v>300</v>
@@ -3064,9 +3112,9 @@
       <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="22" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>21</v>
@@ -3075,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G14" s="16">
         <v>300</v>
@@ -3085,16 +3133,16 @@
       <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15" s="16">
         <v>300</v>
@@ -3104,16 +3152,16 @@
       <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G16" s="16">
         <v>300</v>
@@ -3123,9 +3171,9 @@
       <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>21</v>
@@ -3173,24 +3221,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3202,11 +3250,11 @@
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>180</v>
+      <c r="B3" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>21</v>
@@ -3219,9 +3267,9 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="23" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -3234,9 +3282,9 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -3247,12 +3295,12 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="23" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E6" s="5">
         <v>300</v>
@@ -3291,26 +3339,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3321,24 +3369,24 @@
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>188</v>
+      <c r="B3" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F3" s="5">
         <v>1234567</v>
@@ -3351,12 +3399,12 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
@@ -3372,15 +3420,15 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F5" s="5">
         <v>12346</v>
@@ -3393,9 +3441,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -3412,12 +3460,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
@@ -3431,12 +3479,12 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>21</v>
@@ -3450,15 +3498,15 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F9" s="5">
         <v>123456</v>
@@ -3501,27 +3549,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
@@ -3532,27 +3580,27 @@
         <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>201</v>
+      <c r="B3" s="43" t="s">
+        <v>187</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F3" s="10">
         <v>123456</v>
@@ -3568,15 +3616,15 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="10" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F4" s="10">
         <v>123456</v>
@@ -3592,13 +3640,13 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="20" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="20" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F5" s="10">
         <v>123456</v>
@@ -3614,7 +3662,7 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
@@ -3636,15 +3684,15 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="20" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -3658,15 +3706,15 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="10" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F8" s="10">
         <v>123456</v>
@@ -3680,15 +3728,15 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="10" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F9" s="10">
         <v>1234567</v>
@@ -3729,40 +3777,40 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20" style="43" customWidth="1"/>
-    <col min="5" max="5" width="31" style="43" customWidth="1"/>
+    <col min="4" max="4" width="20" style="33" customWidth="1"/>
+    <col min="5" max="5" width="31" style="33" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>209</v>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>15</v>
@@ -3775,17 +3823,17 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>210</v>
+      <c r="B3" s="43" t="s">
+        <v>196</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>270</v>
+        <v>197</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="F3" s="26">
         <v>4</v>
@@ -3801,15 +3849,15 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>271</v>
+        <v>198</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="F4" s="26">
         <v>3</v>
@@ -3825,14 +3873,14 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="44">
+        <v>199</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="34">
         <v>189102192781</v>
       </c>
       <c r="F5" s="26">
@@ -3849,21 +3897,21 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>284</v>
+        <v>200</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>270</v>
       </c>
       <c r="F6" s="26">
         <v>4</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H6" s="26">
         <v>200</v>
@@ -3873,15 +3921,15 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>283</v>
+        <v>202</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>269</v>
       </c>
       <c r="F7" s="26">
         <v>3</v>
@@ -3897,14 +3945,14 @@
       <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" s="44">
+        <v>203</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="34">
         <v>189102192771</v>
       </c>
       <c r="F8" s="26">
@@ -3921,13 +3969,13 @@
       <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
-        <v>270</v>
+        <v>204</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="F9" s="26">
         <v>4</v>
@@ -3943,14 +3991,14 @@
       <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="41"/>
+        <v>205</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="26">
         <v>4</v>
       </c>
@@ -3965,15 +4013,15 @@
       <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>270</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
@@ -3987,15 +4035,15 @@
       <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>270</v>
+        <v>44</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="F12" s="26">
         <v>4</v>
@@ -4009,15 +4057,15 @@
       <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>269</v>
+        <v>258</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="F13" s="26">
         <v>4</v>
@@ -4033,15 +4081,15 @@
       <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>245</v>
+        <v>259</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>231</v>
       </c>
       <c r="F14" s="26">
         <v>3</v>
@@ -4057,14 +4105,14 @@
       <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="44">
+        <v>260</v>
+      </c>
+      <c r="D15" s="34">
         <v>189102192781</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="31">
         <v>18910219278</v>
       </c>
       <c r="F15" s="26">
@@ -4081,21 +4129,21 @@
       <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>256</v>
+        <v>261</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>242</v>
       </c>
       <c r="F16" s="26">
         <v>4</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H16" s="26">
         <v>200</v>
@@ -4105,21 +4153,21 @@
       <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>258</v>
+        <v>262</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="F17" s="26">
         <v>3</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H17" s="26">
         <v>200</v>
@@ -4129,21 +4177,21 @@
       <c r="A18" s="26">
         <v>16</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="44">
+        <v>263</v>
+      </c>
+      <c r="D18" s="34">
         <v>189102192771</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>281</v>
+      <c r="E18" s="31" t="s">
+        <v>267</v>
       </c>
       <c r="F18" s="26">
         <v>2</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H18" s="26">
         <v>200</v>
@@ -4175,10 +4223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4193,27 +4241,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -4234,14 +4282,14 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="E3" s="8">
         <v>123456</v>
@@ -4250,7 +4298,7 @@
         <v>18910219277</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
@@ -4260,12 +4308,12 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E4" s="8">
         <v>123456</v>
@@ -4274,117 +4322,119 @@
         <v>18910219278</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H4" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>222</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>305</v>
       </c>
       <c r="E5" s="8">
         <v>123456</v>
       </c>
       <c r="F5" s="9">
+        <v>18910219280</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="8">
+        <v>123456</v>
+      </c>
+      <c r="F6" s="9">
         <v>18910219279</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="1">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9">
-        <v>18910219280</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="1">
-        <v>301</v>
+      <c r="G6" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="29">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>232</v>
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E7" s="8">
         <v>123456</v>
       </c>
       <c r="F7" s="9">
-        <v>18910219277</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>229</v>
+        <v>18910219279</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="H7" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="29"/>
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35"/>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="8">
-        <v>123456</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="9">
-        <v>18910219278</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>227</v>
+        <v>18910219280</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H8" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>218</v>
+      </c>
       <c r="E9" s="8">
         <v>123456</v>
       </c>
@@ -4392,73 +4442,119 @@
         <v>18910219277</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H9" s="1">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="29"/>
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35"/>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>233</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>217</v>
       </c>
       <c r="E10" s="8">
         <v>123456</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9">
+        <v>18910219278</v>
+      </c>
       <c r="G10" s="26" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H10" s="1">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="29"/>
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35"/>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="8">
+        <v>123456</v>
+      </c>
       <c r="F11" s="9">
         <v>18910219277</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H11" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="29"/>
+      <c r="A12" s="29">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35"/>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E12" s="8">
         <v>123456</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="9"/>
+      <c r="G12" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="29">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9">
+        <v>18910219277</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="29">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="8">
+        <v>123456</v>
+      </c>
+      <c r="F14" s="9">
         <v>18910219279</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="1">
+      <c r="G14" s="26"/>
+      <c r="H14" s="1">
         <v>300</v>
       </c>
     </row>
@@ -4468,7 +4564,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B3:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4477,10 +4573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4496,61 +4592,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G3" s="5">
         <v>123456</v>
@@ -4563,18 +4659,18 @@
       <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="26" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G4" s="26">
         <v>123456</v>
@@ -4587,9 +4683,9 @@
       <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="26" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D5" s="26">
         <v>18910219278</v>
@@ -4598,7 +4694,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G5" s="26">
         <v>123456</v>
@@ -4611,18 +4707,18 @@
       <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="26" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E6" s="26">
         <v>4</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G6" s="26">
         <v>123456</v>
@@ -4635,18 +4731,18 @@
       <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="26" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E7" s="26">
         <v>3</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G7" s="26">
         <v>123456</v>
@@ -4659,9 +4755,9 @@
       <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="26" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D8" s="26">
         <v>18910219277</v>
@@ -4670,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G8" s="26">
         <v>123456</v>
@@ -4683,18 +4779,18 @@
       <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="26" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E9" s="26">
         <v>4</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G9" s="26">
         <v>123456</v>
@@ -4707,18 +4803,18 @@
       <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="26" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E10" s="26">
         <v>3</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G10" s="26">
         <v>123456</v>
@@ -4731,18 +4827,18 @@
       <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="26" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E11" s="26">
         <v>1</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G11" s="26">
         <v>1234567</v>
@@ -4755,18 +4851,18 @@
       <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="26" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E12" s="26">
         <v>2</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G12" s="26">
         <v>123456</v>
@@ -4779,18 +4875,18 @@
       <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="26" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G13" s="26">
         <v>123456</v>
@@ -4803,16 +4899,16 @@
       <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="26" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G14" s="26">
         <v>123456</v>
@@ -4825,16 +4921,16 @@
       <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="26" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G15" s="26">
         <v>123456</v>
@@ -4847,12 +4943,12 @@
       <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="26" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -4869,31 +4965,79 @@
       <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="26" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26">
         <v>300</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>16</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="29">
+        <v>123456</v>
+      </c>
+      <c r="H18" s="29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="29">
+        <v>17</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="29">
+        <v>123456</v>
+      </c>
+      <c r="H19" s="29">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B3:B19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4925,39 +5069,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
@@ -4970,14 +5114,14 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>50</v>
+      <c r="B3" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -4999,9 +5143,9 @@
       <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -5024,12 +5168,12 @@
       <c r="A5" s="5">
         <v>11</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -5049,12 +5193,12 @@
       <c r="A6" s="5">
         <v>12</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -5074,12 +5218,12 @@
       <c r="A7" s="5">
         <v>13</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -5099,12 +5243,12 @@
       <c r="A8" s="5">
         <v>14</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -5124,12 +5268,12 @@
       <c r="A9" s="5">
         <v>15</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -5164,8 +5308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5178,25 +5322,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
@@ -5204,21 +5348,21 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>55</v>
+      <c r="B3" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
@@ -5231,12 +5375,12 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
@@ -5249,15 +5393,15 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -5265,12 +5409,12 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
@@ -5281,15 +5425,15 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -5297,9 +5441,9 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -5311,12 +5455,12 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="16"/>
@@ -5354,64 +5498,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>70</v>
+      <c r="B3" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="H3" s="2">
         <v>200</v>
@@ -5421,15 +5565,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -5445,15 +5589,15 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -5469,15 +5613,15 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
@@ -5493,15 +5637,15 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -5517,15 +5661,15 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -5541,13 +5685,13 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
@@ -5563,12 +5707,12 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5">
@@ -5585,15 +5729,15 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
@@ -5607,15 +5751,15 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
@@ -5667,64 +5811,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>84</v>
+      <c r="B3" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>261</v>
       </c>
       <c r="F3" s="26">
         <v>4</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H3" s="27">
         <v>200</v>
@@ -5734,21 +5878,21 @@
       <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="26" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F4" s="26">
         <v>3</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H4" s="27">
         <v>200</v>
@@ -5758,12 +5902,12 @@
       <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="26" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E5" s="26">
         <v>18910219278</v>
@@ -5772,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H5" s="27">
         <v>200</v>
@@ -5782,21 +5926,21 @@
       <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F6" s="5">
         <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H6" s="5">
         <v>200</v>
@@ -5806,21 +5950,21 @@
       <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H7" s="5">
         <v>200</v>
@@ -5830,12 +5974,12 @@
       <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E8" s="19">
         <v>18910219277</v>
@@ -5844,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H8" s="5">
         <v>200</v>
@@ -5854,21 +5998,21 @@
       <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H9" s="27">
         <v>200</v>
@@ -5878,21 +6022,21 @@
       <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F10" s="26">
         <v>3</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H10" s="27">
         <v>200</v>
@@ -5902,12 +6046,12 @@
       <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E11" s="26">
         <v>18910219278</v>
@@ -5916,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H11" s="27">
         <v>200</v>
@@ -5926,7 +6070,7 @@
       <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
@@ -5938,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H12" s="27">
         <v>300</v>
@@ -5948,19 +6092,19 @@
       <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26">
         <v>2</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H13" s="27">
         <v>300</v>
@@ -5970,19 +6114,19 @@
       <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E14" s="26">
         <v>18910219278</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H14" s="27">
         <v>300</v>
@@ -5992,12 +6136,12 @@
       <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E15" s="26">
         <v>18910219278</v>
@@ -6032,8 +6176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6050,28 +6194,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
@@ -6079,42 +6223,42 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>99</v>
+      <c r="B3" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="5">
-        <v>123456</v>
+        <v>1234567</v>
       </c>
       <c r="I3" s="5">
         <v>200</v>
@@ -6124,18 +6268,18 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
@@ -6151,18 +6295,18 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>54</v>
+        <v>326</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>19</v>
@@ -6178,18 +6322,18 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>19</v>
@@ -6205,7 +6349,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
@@ -6214,7 +6358,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>19</v>
@@ -6230,16 +6374,16 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>19</v>
@@ -6255,12 +6399,12 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>21</v>
@@ -6280,18 +6424,18 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
@@ -6305,18 +6449,18 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
@@ -6344,7 +6488,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6358,25 +6502,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -6384,24 +6528,24 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>93</v>
+      <c r="B3" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F3" s="5">
         <v>200</v>
@@ -6411,15 +6555,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="F4" s="5">
         <v>325</v>
@@ -6429,13 +6573,13 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
       <c r="F5" s="5">
         <v>300</v>
@@ -6445,9 +6589,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>

--- a/file/数据设计.xlsx
+++ b/file/数据设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="911" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="911" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="请求" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="336">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>输入一个不存在的账号</t>
-  </si>
-  <si>
-    <t>whkf001232131</t>
   </si>
   <si>
     <t>非法请求：loginCode为空</t>
@@ -234,15 +231,9 @@
     <t>成功退出：开放</t>
   </si>
   <si>
-    <t>whkf001</t>
-  </si>
-  <si>
     <t>成功退出：封闭</t>
   </si>
   <si>
-    <t>whfb001</t>
-  </si>
-  <si>
     <t>一个已经退出的再次进行退出</t>
   </si>
   <si>
@@ -271,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>whfb1126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,10 +409,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>whkf1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>非法请求：sysCode为空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -549,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/getUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取登录用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,49 +546,30 @@
     <t>开放：账号</t>
   </si>
   <si>
-    <t>whkf1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>开放：手机号</t>
   </si>
   <si>
     <t>开放：邮箱</t>
   </si>
   <si>
-    <t>23532311118@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>开放：QQ</t>
   </si>
   <si>
     <t>封闭：账号</t>
   </si>
   <si>
-    <t>whfb1027001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>封闭：手机号</t>
   </si>
   <si>
     <t>封闭：邮箱</t>
   </si>
   <si>
-    <t>2353231111444444444444@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>封闭：QQ</t>
   </si>
   <si>
     <t>输入不存在的账号：开放</t>
   </si>
   <si>
-    <t>whkf00132353</t>
-  </si>
-  <si>
     <t>输入不存在的手机号：开放</t>
   </si>
   <si>
@@ -628,10 +588,6 @@
     <t>23454542143324448</t>
   </si>
   <si>
-    <t>/umis/user/getLoginUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取来源系统下拉列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,10 +619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/umis /user/updateLoginUserPassword.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>找回密码</t>
   </si>
   <si>
@@ -727,10 +679,6 @@
   </si>
   <si>
     <t>非法请求：账号为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>whkf1027001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1203,31 +1151,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fb201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放和封闭系统都写入封闭的code值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户写成开放系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fb201812061</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开放关联账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭关联账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kf201812061</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FX001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放和封闭系统都写入封闭的code值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户写成开放系统</t>
+    <t>开放：两个开放系统同时关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1235,23 +1223,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fb201812061</t>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fb20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb201812061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放关联账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭关联账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1259,7 +1243,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FX001</t>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@fb.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/getLoginUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/getUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1267,20 +1291,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kf201812061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：两个开放系统同时关联</t>
+    <t>修改后的密码还原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/updateLoginUserPassword.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kf20181206</t>
@@ -1295,7 +1319,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fb20181206</t>
+    <t>whkf001232131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1515,7 +1555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1624,13 +1664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1640,6 +1674,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1940,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2000,10 +2043,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2011,10 +2054,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2022,10 +2065,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2033,10 +2076,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2044,10 +2087,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2055,10 +2098,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2066,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2077,10 +2120,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2088,10 +2131,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2099,10 +2142,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2110,10 +2153,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2121,10 +2164,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>173</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2132,10 +2175,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2143,10 +2186,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2154,16 +2197,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2185,30 +2229,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -2218,11 +2262,11 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>112</v>
+      <c r="B3" s="44" t="s">
+        <v>107</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D3" s="5">
         <v>188888888888</v>
@@ -2238,9 +2282,9 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D4" s="5">
         <v>18888888888</v>
@@ -2256,9 +2300,9 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5">
         <v>18888888888</v>
@@ -2274,9 +2318,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -2290,9 +2334,9 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5">
         <v>18898765424</v>
@@ -2336,55 +2380,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>122</v>
+      <c r="B3" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
@@ -2403,12 +2447,12 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
@@ -2427,9 +2471,9 @@
       <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -2449,12 +2493,12 @@
       <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -2471,12 +2515,12 @@
       <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -2493,12 +2537,12 @@
       <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
@@ -2529,7 +2573,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2544,66 +2588,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F3" s="30">
         <v>18910219278</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H3" s="29">
         <v>123456</v>
@@ -2616,21 +2660,21 @@
       <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="29" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F4" s="30">
         <v>18910219277</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H4" s="29">
         <v>123456</v>
@@ -2643,21 +2687,21 @@
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F5" s="5">
         <v>18910219278</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H5" s="5">
         <v>123456</v>
@@ -2670,15 +2714,15 @@
       <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F6" s="5">
         <v>18910219278</v>
@@ -2697,9 +2741,9 @@
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
@@ -2720,12 +2764,12 @@
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2743,12 +2787,12 @@
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -2768,12 +2812,12 @@
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -2791,12 +2835,12 @@
       <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -2828,7 +2872,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2842,26 +2886,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="D1" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2872,18 +2916,18 @@
         <v>34</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>142</v>
+      <c r="B3" s="36" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
@@ -2892,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="G3" s="5">
         <v>200</v>
@@ -2902,9 +2946,9 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
@@ -2913,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>13121357781</v>
+        <v>18910219278</v>
       </c>
       <c r="G4" s="5">
         <v>200</v>
@@ -2923,9 +2967,9 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
@@ -2934,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
@@ -2944,9 +2988,9 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="22" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>21</v>
@@ -2954,8 +2998,8 @@
       <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="5">
-        <v>23532311118</v>
+      <c r="F6" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="G6" s="5">
         <v>200</v>
@@ -2965,9 +3009,9 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
@@ -2976,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="G7" s="16">
         <v>200</v>
@@ -2986,9 +3030,9 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -2997,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5">
-        <v>13121300099</v>
+        <v>18910219277</v>
       </c>
       <c r="G8" s="16">
         <v>200</v>
@@ -3007,9 +3051,9 @@
       <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="22" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
@@ -3018,7 +3062,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="G9" s="16">
         <v>200</v>
@@ -3028,9 +3072,9 @@
       <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="22" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
@@ -3038,8 +3082,8 @@
       <c r="E10" s="5">
         <v>4</v>
       </c>
-      <c r="F10" s="5">
-        <v>2353231111333</v>
+      <c r="F10" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="G10" s="16">
         <v>200</v>
@@ -3049,9 +3093,9 @@
       <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="22" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>21</v>
@@ -3059,9 +3103,7 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="16">
         <v>300</v>
       </c>
@@ -3070,9 +3112,9 @@
       <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="22" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>21</v>
@@ -3081,19 +3123,19 @@
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G12" s="16">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="22" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>21</v>
@@ -3102,19 +3144,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G13" s="16">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="22" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>21</v>
@@ -3123,26 +3165,26 @@
         <v>4</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G14" s="16">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="G15" s="16">
         <v>300</v>
@@ -3152,16 +3194,16 @@
       <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="G16" s="16">
         <v>300</v>
@@ -3171,9 +3213,9 @@
       <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>21</v>
@@ -3196,9 +3238,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F13" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3221,24 +3263,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3250,11 +3292,11 @@
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>166</v>
+      <c r="B3" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>21</v>
@@ -3267,9 +3309,9 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="23" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -3282,9 +3324,9 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -3295,12 +3337,12 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="23" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E6" s="5">
         <v>300</v>
@@ -3321,10 +3363,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3339,26 +3381,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3369,24 +3411,24 @@
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>174</v>
+      <c r="B3" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F3" s="5">
         <v>1234567</v>
@@ -3399,12 +3441,12 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
@@ -3413,22 +3455,22 @@
         <v>123456</v>
       </c>
       <c r="G4" s="5">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F5" s="5">
         <v>12346</v>
@@ -3441,9 +3483,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -3460,12 +3502,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
@@ -3479,12 +3521,12 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>106</v>
+        <v>321</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>21</v>
@@ -3498,20 +3540,41 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F9" s="5">
         <v>123456</v>
       </c>
       <c r="G9" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="35">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="35">
         <v>200</v>
       </c>
     </row>
@@ -3521,7 +3584,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3533,7 +3596,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3549,27 +3612,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
@@ -3580,27 +3643,27 @@
         <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>187</v>
+      <c r="B3" s="44" t="s">
+        <v>174</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="F3" s="10">
         <v>123456</v>
@@ -3616,15 +3679,15 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="F4" s="10">
         <v>123456</v>
@@ -3640,13 +3703,13 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="20" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="20" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="F5" s="10">
         <v>123456</v>
@@ -3662,7 +3725,7 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
@@ -3684,15 +3747,15 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="20" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -3706,15 +3769,15 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="10" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="F8" s="10">
         <v>123456</v>
@@ -3728,15 +3791,15 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="10" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>106</v>
+        <v>327</v>
       </c>
       <c r="F9" s="10">
         <v>1234567</v>
@@ -3784,30 +3847,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="31" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>35</v>
@@ -3823,17 +3886,17 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>196</v>
+      <c r="B3" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F3" s="26">
         <v>4</v>
@@ -3849,15 +3912,15 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="27" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F4" s="26">
         <v>3</v>
@@ -3873,12 +3936,12 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="27" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E5" s="34">
         <v>189102192781</v>
@@ -3897,21 +3960,21 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="27" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F6" s="26">
         <v>4</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H6" s="26">
         <v>200</v>
@@ -3921,15 +3984,15 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="27" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F7" s="26">
         <v>3</v>
@@ -3945,12 +4008,12 @@
       <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="27" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E8" s="34">
         <v>189102192771</v>
@@ -3969,13 +4032,13 @@
       <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="27" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F9" s="26">
         <v>4</v>
@@ -3991,12 +4054,12 @@
       <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="27" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="26">
@@ -4013,15 +4076,15 @@
       <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
@@ -4035,15 +4098,15 @@
       <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F12" s="26">
         <v>4</v>
@@ -4057,15 +4120,15 @@
       <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="27" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F13" s="26">
         <v>4</v>
@@ -4081,15 +4144,15 @@
       <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="26" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="F14" s="26">
         <v>3</v>
@@ -4105,9 +4168,9 @@
       <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="26" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D15" s="34">
         <v>189102192781</v>
@@ -4129,21 +4192,21 @@
       <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="27" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F16" s="26">
         <v>4</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H16" s="26">
         <v>200</v>
@@ -4153,21 +4216,21 @@
       <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="26" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F17" s="26">
         <v>3</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H17" s="26">
         <v>200</v>
@@ -4177,21 +4240,21 @@
       <c r="A18" s="26">
         <v>16</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="26" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D18" s="34">
         <v>189102192771</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F18" s="26">
         <v>2</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H18" s="26">
         <v>200</v>
@@ -4225,8 +4288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4241,29 +4304,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -4272,7 +4335,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -4282,14 +4345,14 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="E3" s="8">
         <v>123456</v>
@@ -4298,7 +4361,7 @@
         <v>18910219277</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
@@ -4308,12 +4371,12 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E4" s="8">
         <v>123456</v>
@@ -4322,7 +4385,7 @@
         <v>18910219278</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H4" s="1">
         <v>200</v>
@@ -4332,12 +4395,12 @@
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="29" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E5" s="8">
         <v>123456</v>
@@ -4356,12 +4419,12 @@
       <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="29" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E6" s="8">
         <v>123456</v>
@@ -4370,7 +4433,7 @@
         <v>18910219279</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H6" s="29">
         <v>200</v>
@@ -4380,12 +4443,12 @@
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E7" s="8">
         <v>123456</v>
@@ -4394,7 +4457,7 @@
         <v>18910219279</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H7" s="1">
         <v>301</v>
@@ -4404,12 +4467,12 @@
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>24</v>
@@ -4418,7 +4481,7 @@
         <v>18910219280</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H8" s="1">
         <v>301</v>
@@ -4428,12 +4491,12 @@
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E9" s="8">
         <v>123456</v>
@@ -4442,7 +4505,7 @@
         <v>18910219277</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H9" s="1">
         <v>302</v>
@@ -4452,12 +4515,12 @@
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E10" s="8">
         <v>123456</v>
@@ -4466,7 +4529,7 @@
         <v>18910219278</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H10" s="1">
         <v>302</v>
@@ -4476,7 +4539,7 @@
       <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -4488,7 +4551,7 @@
         <v>18910219277</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H11" s="1">
         <v>300</v>
@@ -4498,19 +4561,19 @@
       <c r="A12" s="29">
         <v>10</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E12" s="8">
         <v>123456</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="26" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H12" s="1">
         <v>300</v>
@@ -4520,7 +4583,7 @@
       <c r="A13" s="29">
         <v>11</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4530,7 +4593,7 @@
         <v>18910219277</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H13" s="1">
         <v>300</v>
@@ -4540,12 +4603,12 @@
       <c r="A14" s="29">
         <v>12</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E14" s="8">
         <v>123456</v>
@@ -4592,38 +4655,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>36</v>
@@ -4633,20 +4696,20 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G3" s="5">
         <v>123456</v>
@@ -4659,18 +4722,18 @@
       <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="26" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G4" s="26">
         <v>123456</v>
@@ -4683,9 +4746,9 @@
       <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="26" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D5" s="26">
         <v>18910219278</v>
@@ -4694,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G5" s="26">
         <v>123456</v>
@@ -4707,18 +4770,18 @@
       <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="26" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E6" s="26">
         <v>4</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G6" s="26">
         <v>123456</v>
@@ -4731,18 +4794,18 @@
       <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="26" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E7" s="26">
         <v>3</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G7" s="26">
         <v>123456</v>
@@ -4755,9 +4818,9 @@
       <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="26" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D8" s="26">
         <v>18910219277</v>
@@ -4766,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G8" s="26">
         <v>123456</v>
@@ -4779,18 +4842,18 @@
       <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="26" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E9" s="26">
         <v>4</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G9" s="26">
         <v>123456</v>
@@ -4803,18 +4866,18 @@
       <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="26" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E10" s="26">
         <v>3</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G10" s="26">
         <v>123456</v>
@@ -4827,18 +4890,18 @@
       <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="26" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E11" s="26">
         <v>1</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G11" s="26">
         <v>1234567</v>
@@ -4851,18 +4914,18 @@
       <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="26" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E12" s="26">
         <v>2</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G12" s="26">
         <v>123456</v>
@@ -4875,18 +4938,18 @@
       <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="26" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G13" s="26">
         <v>123456</v>
@@ -4899,16 +4962,16 @@
       <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="26" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G14" s="26">
         <v>123456</v>
@@ -4921,16 +4984,16 @@
       <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="26" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G15" s="26">
         <v>123456</v>
@@ -4943,12 +5006,12 @@
       <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="26" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -4965,18 +5028,18 @@
       <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="26" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26">
@@ -4987,12 +5050,12 @@
       <c r="A18" s="29">
         <v>16</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="29" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E18" s="29">
         <v>1</v>
@@ -5011,18 +5074,18 @@
       <c r="A19" s="29">
         <v>17</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E19" s="29">
         <v>1</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G19" s="29">
         <v>123456</v>
@@ -5069,28 +5132,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
@@ -5101,7 +5164,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
@@ -5114,14 +5177,14 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>47</v>
+      <c r="B3" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -5143,9 +5206,9 @@
       <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -5168,12 +5231,12 @@
       <c r="A5" s="5">
         <v>11</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -5193,12 +5256,12 @@
       <c r="A6" s="5">
         <v>12</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -5218,12 +5281,12 @@
       <c r="A7" s="5">
         <v>13</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -5243,12 +5306,12 @@
       <c r="A8" s="5">
         <v>14</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -5268,12 +5331,12 @@
       <c r="A9" s="5">
         <v>15</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -5309,7 +5372,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5319,55 +5382,56 @@
     <col min="3" max="3" width="32.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="25.375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>65</v>
+      <c r="F2" s="35" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="35">
         <v>200</v>
       </c>
     </row>
@@ -5375,17 +5439,17 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="35">
         <v>200</v>
       </c>
     </row>
@@ -5393,77 +5457,87 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="F5" s="35">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="35">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="F7" s="35">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="35">
+        <v>300</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>333</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="35">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5483,7 +5557,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5498,35 +5572,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -5539,23 +5613,23 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>66</v>
+      <c r="B3" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H3" s="2">
         <v>200</v>
@@ -5565,15 +5639,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -5589,15 +5663,15 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -5613,15 +5687,15 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
@@ -5637,15 +5711,15 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -5661,15 +5735,15 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -5685,13 +5759,13 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
@@ -5707,12 +5781,12 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5">
@@ -5729,12 +5803,12 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>39</v>
@@ -5751,12 +5825,12 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>39</v>
@@ -5811,64 +5885,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>80</v>
+      <c r="B3" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>247</v>
       </c>
       <c r="F3" s="26">
         <v>4</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H3" s="27">
         <v>200</v>
@@ -5878,21 +5952,21 @@
       <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="26" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F4" s="26">
         <v>3</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H4" s="27">
         <v>200</v>
@@ -5902,12 +5976,12 @@
       <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="26" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E5" s="26">
         <v>18910219278</v>
@@ -5916,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H5" s="27">
         <v>200</v>
@@ -5926,21 +6000,21 @@
       <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F6" s="5">
         <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H6" s="5">
         <v>200</v>
@@ -5950,21 +6024,21 @@
       <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H7" s="5">
         <v>200</v>
@@ -5974,12 +6048,12 @@
       <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E8" s="19">
         <v>18910219277</v>
@@ -5988,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H8" s="5">
         <v>200</v>
@@ -5998,21 +6072,21 @@
       <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H9" s="27">
         <v>200</v>
@@ -6022,21 +6096,21 @@
       <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F10" s="26">
         <v>3</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H10" s="27">
         <v>200</v>
@@ -6046,12 +6120,12 @@
       <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E11" s="26">
         <v>18910219278</v>
@@ -6060,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H11" s="27">
         <v>200</v>
@@ -6070,7 +6144,7 @@
       <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
@@ -6082,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H12" s="27">
         <v>300</v>
@@ -6092,19 +6166,19 @@
       <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26">
         <v>2</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H13" s="27">
         <v>300</v>
@@ -6114,19 +6188,19 @@
       <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E14" s="26">
         <v>18910219278</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H14" s="27">
         <v>300</v>
@@ -6136,12 +6210,12 @@
       <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E15" s="26">
         <v>18910219278</v>
@@ -6176,8 +6250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6194,28 +6268,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
@@ -6223,13 +6297,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>36</v>
@@ -6239,20 +6313,20 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>95</v>
+      <c r="B3" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
@@ -6268,18 +6342,18 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="5" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
@@ -6295,18 +6369,18 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>19</v>
@@ -6322,18 +6396,18 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>19</v>
@@ -6349,7 +6423,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
@@ -6358,7 +6432,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>19</v>
@@ -6374,16 +6448,16 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>19</v>
@@ -6399,12 +6473,12 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>21</v>
@@ -6424,18 +6498,18 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
@@ -6449,18 +6523,18 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
@@ -6502,25 +6576,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
@@ -6528,24 +6602,24 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>89</v>
+      <c r="B3" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F3" s="5">
         <v>200</v>
@@ -6555,15 +6629,15 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F4" s="5">
         <v>325</v>
@@ -6573,13 +6647,13 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F5" s="5">
         <v>300</v>
@@ -6589,9 +6663,9 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>

--- a/file/数据设计.xlsx
+++ b/file/数据设计.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="335">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -807,27 +807,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fb201812062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：成功登陆手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：成功登录账号未关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@kf.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>201812061@fb.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放成功解绑：QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放成功解绑：邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放成功解绑：手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@kf.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭成功解绑：QQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭成功解绑：邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭成功解绑：手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@fb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@fb.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：邮箱绑定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldContactWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206kf01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018120601@kf.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QQ数据还原：开放 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">邮箱数据还原：开放 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号数据还原：开放 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QQ数据还原：封闭 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱数据还原：封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号数据还原：封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18910219277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18910219278</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18910219277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018120601@fb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018120601@fb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：成功登陆QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：成功登陆邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：成功登陆手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：成功登陆QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭：成功登陆邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：loginCode为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：type为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：sysCode为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法请求：userPassword为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logincode和type不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logincode和syscode不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未关联的账号登陆：账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ucds/ucenter/doDeleteUserForTest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbUserAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbSysCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功注册：关联开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功注册：关联封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kf201812061</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放和封闭系统都写入封闭的code值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户写成开放系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fb201812061</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fb201812062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb201812062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：成功登陆手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭：成功登录账号未关联</t>
+    <t>fb20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放关联账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭关联账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -835,43 +1203,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FX001</t>
+    <t>kf201812061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放：两个开放系统同时关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kf20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fb20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fb20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kf20181206</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20181206kf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206kf1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206@kf.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>201812061@fb.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放成功解绑：QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181206@fb.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/getLoginUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/getUser.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -879,15 +1267,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>开放成功解绑：邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放成功解绑：手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206@kf.com</t>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,171 +1283,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>封闭成功解绑：QQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭成功解绑：邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭成功解绑：手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206fb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206fb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206@fb.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206@fb.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206kf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206kf</t>
+    <t>修改后的密码还原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/umis/user/updateLoginUserPassword.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kf20181206</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20181206kf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：邮箱绑定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldContactWay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206kf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206kf01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018120601@kf.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">QQ数据还原：开放 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">邮箱数据还原：开放 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">手机号数据还原：开放 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">QQ数据还原：封闭 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱数据还原：封闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号数据还原：封闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206fb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18910219277</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18910219278</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18910219277</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018120601@fb.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018120601@fb.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206fb01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：成功登陆QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：成功登陆邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭：成功登陆手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭：成功登陆QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭：成功登陆邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：loginCode为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：type为空</t>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whkf001232131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kf20181206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1067,275 +1331,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非法请求：sysCode为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法请求：userPassword为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logincode和type不对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logincode和syscode不对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未关联的账号登陆：账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ucds/ucenter/doDeleteUserForTest.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbUserAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbSysCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功注册：关联开放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功注册：关联封闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb201812061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf201812061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放和封闭系统都写入封闭的code值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户写成开放系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb201812061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb201812061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放关联账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭关联账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf201812061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放：两个开放系统同时关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206kf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206fb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181206@fb.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/getLoginUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/getUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改后的密码还原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/umis/user/updateLoginUserPassword.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fb20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whkf001232131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kf20181206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysCode</t>
+    <t>kf201812062</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2134,7 +2130,7 @@
         <v>133</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2145,7 +2141,7 @@
         <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2167,7 +2163,7 @@
         <v>159</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2197,10 +2193,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2402,16 +2398,16 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="F2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>116</v>
@@ -2428,7 +2424,7 @@
         <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
@@ -2452,7 +2448,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
@@ -2498,7 +2494,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -2542,7 +2538,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
@@ -2635,19 +2631,19 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F3" s="30">
         <v>18910219278</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H3" s="29">
         <v>123456</v>
@@ -2662,13 +2658,13 @@
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F4" s="30">
         <v>18910219277</v>
@@ -2692,10 +2688,10 @@
         <v>127</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F5" s="5">
         <v>18910219278</v>
@@ -2719,7 +2715,7 @@
         <v>129</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>130</v>
@@ -2769,7 +2765,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2792,7 +2788,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -2817,7 +2813,7 @@
         <v>131</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -2840,7 +2836,7 @@
         <v>132</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -2978,7 +2974,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
@@ -2999,7 +2995,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G6" s="5">
         <v>200</v>
@@ -3020,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" s="16">
         <v>200</v>
@@ -3062,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G9" s="16">
         <v>200</v>
@@ -3083,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G10" s="16">
         <v>200</v>
@@ -3203,7 +3199,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G16" s="16">
         <v>300</v>
@@ -3425,7 +3421,7 @@
         <v>164</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>128</v>
@@ -3467,7 +3463,7 @@
         <v>167</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>168</v>
@@ -3507,7 +3503,7 @@
         <v>169</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
@@ -3526,7 +3522,7 @@
         <v>131</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>21</v>
@@ -3545,7 +3541,7 @@
         <v>164</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>128</v>
@@ -3563,13 +3559,13 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F10" s="35">
         <v>123456</v>
@@ -3663,7 +3659,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F3" s="10">
         <v>123456</v>
@@ -3687,7 +3683,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F4" s="10">
         <v>123456</v>
@@ -3709,7 +3705,7 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F5" s="10">
         <v>123456</v>
@@ -3755,7 +3751,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -3777,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F8" s="10">
         <v>123456</v>
@@ -3799,7 +3795,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F9" s="10">
         <v>1234567</v>
@@ -3867,7 +3863,7 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>181</v>
@@ -3893,10 +3889,10 @@
         <v>183</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F3" s="26">
         <v>4</v>
@@ -3917,10 +3913,10 @@
         <v>184</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F4" s="26">
         <v>3</v>
@@ -3941,7 +3937,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E5" s="34">
         <v>189102192781</v>
@@ -3965,10 +3961,10 @@
         <v>186</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F6" s="26">
         <v>4</v>
@@ -3989,10 +3985,10 @@
         <v>188</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="26">
         <v>3</v>
@@ -4013,7 +4009,7 @@
         <v>189</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E8" s="34">
         <v>189102192771</v>
@@ -4038,7 +4034,7 @@
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9" s="26">
         <v>4</v>
@@ -4059,7 +4055,7 @@
         <v>191</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="26">
@@ -4081,10 +4077,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
@@ -4103,10 +4099,10 @@
         <v>43</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F12" s="26">
         <v>4</v>
@@ -4122,13 +4118,13 @@
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F13" s="26">
         <v>4</v>
@@ -4146,13 +4142,13 @@
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F14" s="26">
         <v>3</v>
@@ -4170,7 +4166,7 @@
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="34">
         <v>189102192781</v>
@@ -4194,13 +4190,13 @@
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F16" s="26">
         <v>4</v>
@@ -4218,13 +4214,13 @@
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F17" s="26">
         <v>3</v>
@@ -4242,13 +4238,13 @@
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="34">
         <v>189102192771</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F18" s="26">
         <v>2</v>
@@ -4289,7 +4285,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4326,7 +4322,7 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -4335,7 +4331,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -4397,10 +4393,10 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E5" s="8">
         <v>123456</v>
@@ -4421,10 +4417,10 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E6" s="8">
         <v>123456</v>
@@ -4496,7 +4492,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="8">
         <v>123456</v>
@@ -4520,7 +4516,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="E10" s="8">
         <v>123456</v>
@@ -4566,7 +4562,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E12" s="8">
         <v>123456</v>
@@ -4608,7 +4604,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" s="8">
         <v>123456</v>
@@ -4677,16 +4673,16 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>36</v>
@@ -4709,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G3" s="5">
         <v>123456</v>
@@ -4724,16 +4720,16 @@
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G4" s="26">
         <v>123456</v>
@@ -4748,7 +4744,7 @@
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" s="26">
         <v>18910219278</v>
@@ -4772,10 +4768,10 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E6" s="26">
         <v>4</v>
@@ -4796,10 +4792,10 @@
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E7" s="26">
         <v>3</v>
@@ -4820,7 +4816,7 @@
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D8" s="26">
         <v>18910219277</v>
@@ -4829,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G8" s="26">
         <v>123456</v>
@@ -4844,10 +4840,10 @@
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E9" s="26">
         <v>4</v>
@@ -4868,16 +4864,16 @@
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E10" s="26">
         <v>3</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G10" s="26">
         <v>123456</v>
@@ -4892,7 +4888,7 @@
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>202</v>
@@ -4901,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G11" s="26">
         <v>1234567</v>
@@ -4916,7 +4912,7 @@
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>202</v>
@@ -4925,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G12" s="26">
         <v>123456</v>
@@ -4940,7 +4936,7 @@
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>202</v>
@@ -4949,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G13" s="26">
         <v>123456</v>
@@ -4964,14 +4960,14 @@
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G14" s="26">
         <v>123456</v>
@@ -4986,14 +4982,14 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>202</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G15" s="26">
         <v>123456</v>
@@ -5008,7 +5004,7 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>202</v>
@@ -5030,7 +5026,7 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>202</v>
@@ -5039,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26">
@@ -5052,10 +5048,10 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E18" s="29">
         <v>1</v>
@@ -5076,10 +5072,10 @@
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E19" s="29">
         <v>1</v>
@@ -5181,10 +5177,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -5311,7 +5307,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -5336,7 +5332,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -5426,7 +5422,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
@@ -5444,7 +5440,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
@@ -5462,10 +5458,10 @@
         <v>53</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F5" s="35">
         <v>200</v>
@@ -5480,7 +5476,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
@@ -5498,7 +5494,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>55</v>
@@ -5532,7 +5528,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="35">
@@ -5620,16 +5616,16 @@
         <v>63</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H3" s="2">
         <v>200</v>
@@ -5641,13 +5637,13 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -5668,10 +5664,10 @@
         <v>64</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -5692,10 +5688,10 @@
         <v>65</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
@@ -5716,10 +5712,10 @@
         <v>66</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -5740,10 +5736,10 @@
         <v>67</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -5786,7 +5782,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5">
@@ -5808,7 +5804,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>39</v>
@@ -5830,7 +5826,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>39</v>
@@ -5930,13 +5926,13 @@
         <v>76</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F3" s="26">
         <v>4</v>
@@ -5954,19 +5950,19 @@
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>196</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F4" s="26">
         <v>3</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H4" s="27">
         <v>200</v>
@@ -5978,7 +5974,7 @@
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>195</v>
@@ -6002,13 +5998,13 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F6" s="5">
         <v>4</v>
@@ -6026,13 +6022,13 @@
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
@@ -6050,10 +6046,10 @@
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8" s="19">
         <v>18910219277</v>
@@ -6062,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H8" s="5">
         <v>200</v>
@@ -6077,10 +6073,10 @@
         <v>77</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
@@ -6101,16 +6097,16 @@
         <v>78</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F10" s="26">
         <v>3</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H10" s="27">
         <v>200</v>
@@ -6125,7 +6121,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E11" s="26">
         <v>18910219278</v>
@@ -6171,7 +6167,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26">
@@ -6193,7 +6189,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E14" s="26">
         <v>18910219278</v>
@@ -6215,7 +6211,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E15" s="26">
         <v>18910219278</v>
@@ -6320,13 +6316,13 @@
         <v>97</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
@@ -6344,16 +6340,16 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
@@ -6374,13 +6370,13 @@
         <v>92</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>19</v>
@@ -6401,13 +6397,13 @@
         <v>93</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>19</v>
@@ -6453,7 +6449,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
@@ -6478,7 +6474,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>21</v>
@@ -6503,7 +6499,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>21</v>
@@ -6528,7 +6524,7 @@
         <v>96</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>21</v>
@@ -6616,10 +6612,10 @@
         <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F3" s="5">
         <v>200</v>
@@ -6634,10 +6630,10 @@
         <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F4" s="5">
         <v>325</v>
@@ -6653,7 +6649,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F5" s="5">
         <v>300</v>
